--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/56_Manisa_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/56_Manisa_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB6EF09-3A9A-4311-80C8-3F31F37129C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{222C757A-D95D-4397-A15B-52ED1F47C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{4354F0B4-DDCD-4787-8022-0AC49F20CC5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{EC01B0B5-FB67-409A-A6F4-767910F2AD4B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{60AF2397-D396-4A45-8320-EF01854E327A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{43D2A427-FB8A-4199-BF65-8081F831F693}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{4C939A48-3AF3-41C8-9524-0798CE4AD3A9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9300637E-FFE8-4E68-995F-22BB8779E608}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AD7EF885-86B1-4FB5-8CC4-455407915651}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F9B1DD6E-404E-4D23-967C-04FBFA334B53}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F3698F2E-9DE1-4EA5-9BB0-D14D1E332F41}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{108844BB-B35F-4C1A-8ADE-8ED4E24F0458}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{64002449-CE94-4814-9CCC-693C54A05DC4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A0F4F521-507F-4F38-91C3-890B9108A7DE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{79D329DE-D995-450C-B37F-8D54E364B3A5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7F67500F-04A4-4E98-9BF5-8ADC8154FCE7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{51B36990-0729-4351-ABF2-94AD6D0019D4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{60F951C9-C862-4687-9CDF-AA9B1B396A0E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F451C3-2A4E-4B07-B5E3-A39713B2D4EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCCF5EF-FE64-40A1-8887-2F6BD7699C97}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2588,18 +2588,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1B6E7AE-FFE4-4D4E-BE83-D527160B2B6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{675E06D5-66BA-4074-917D-E465B6F66D8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3541880A-873B-416A-B9AB-99210F7792B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1B638F6-F982-4E13-A09F-B675947B44C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5FCC77A-4AFD-4503-8869-EF899184D343}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A024AE9-E580-4E8B-8282-7E949C7B6724}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F424A12-E0F1-4CEE-BC41-900907CBAE6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F32ACD8-9185-4C2D-9893-D11D58C75553}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96FDC532-3E7E-4AA9-889C-1C40FEFD64B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{339BE7EC-A061-4C58-B58F-CF8CA59B70FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{786271A3-0D31-4A5F-9152-9B59CB0516E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0DBC677-F313-4D27-8306-F7D7EA6033F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE80EEFA-5D79-4475-B71C-226E29BD7718}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73B1EC47-0B0F-41AB-BE99-AF53E80DFFAD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{148E4130-62B7-41B2-9717-325B4D1F6B90}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{638620D1-F981-4D70-92E3-BC59296FBF53}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB02F8D4-E959-4406-A9CE-0A7F0E37B2EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03D9E968-EEA6-4058-AFCB-AC01181DC2D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E82F83FC-5A3D-47B0-A84F-34204CA96319}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D902E24-6B91-48AA-A570-B5F2DC7BC221}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BFA06F3-2AAF-4BB5-B1A7-22B71DD85FA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB1B85BA-322E-47B4-92B0-85259C010859}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E44A9529-DD3B-4D0E-924A-BEBA393266A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2011054-57E4-4139-8537-059F6B985C53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2612,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5216A3-96D6-4E06-A997-9EFE75846718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBFBAE3-FE89-48ED-A03A-7811E82346FB}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3872,18 +3872,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C17F6E6-0EE7-4929-9737-9F4BE90B89CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18D172FB-FB1B-4F13-A6F2-ED3529FEE48E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{715DD874-2E1B-40C0-AECD-1C3E410D44F3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF81711D-BD4B-4B44-9FF0-6CCA9CABB97C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFF8FA6A-10D1-4353-AA88-B2B9B305C162}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76D43C7D-21B5-4E9C-8FAC-0D6EEE4BE8F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8326EC42-E020-4EA3-870F-378AF111D227}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C59E3466-956A-4AEE-9AAA-91882F373F7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7E8F139-BF9F-498F-BB09-246D327A50FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{515F14B5-10FF-4B1C-A5D9-762FB8292332}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD7C21B6-9817-4F7F-9A51-D510C0B6DCFA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C500755C-74B3-45FE-9B64-8BD261F34666}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D702DCD-6600-4085-A0F6-F5CCE1AE3C09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71FF7907-CD7D-47A5-99A3-D165047F858E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E21CC39A-8B36-4F0D-8564-DB1D51D10052}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E2C48E68-C2CD-4EAC-8AD4-C133885DAE10}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8E8BEEF-37DA-4257-8BCB-ECAA1B119B84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3B2B399-071C-4922-B698-39738FDE22D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1AA7343-3BBF-4453-903F-A2FA4B42067C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D93D0650-17E7-4C56-B0D9-63583A003E16}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBD15C01-DDC4-4773-9A90-76FA1DD09186}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E27A8BF3-0C4C-4A63-8889-B529167AB7D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D03794E9-770A-4999-8333-E020193E0031}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F8F5957-CF58-4077-BB02-B499908520F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3896,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD11DEC-9A85-405B-B60E-682A1A0CFFF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF70E3BA-5074-44CA-94DA-BC1C87C5BFCC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5156,18 +5156,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D23D36E2-D09E-449D-BB9F-093203CB0578}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDBC1FB7-C907-4F4E-AA99-453F16074F70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C707B371-8B40-4679-9D2E-C309FDE2D719}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9470BDA-3899-4DCB-9947-3D744F94F34F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C492C287-2342-4ECD-A2D4-971857723F12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3A3096D-110F-47E0-9343-6035AA7D9E59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7696F74-31E5-4626-8053-3741A8F2DA8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D42B991-E908-481E-BB73-E22F95A18FFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FF54C03-5FC5-48A0-9382-0F705222D5A3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CAED9704-7875-4C0E-8410-12F24E7C3FAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D36C2DDE-B5A7-435F-938C-3F3D420E8CDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC68B7C4-8E8E-43CE-BA24-E895829E7C8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1252BBA9-DFB9-4706-B907-E90EFEF7EF09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F30C471-10BA-4B55-8185-93AF8C7CFD82}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DD69C9D-358C-469A-BF20-056DDD8AA0DF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4D188E5-66DE-4279-AA0C-32374547EB1B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F070828-D730-42F1-8509-FA600859213C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1231D779-8A60-41A0-91D0-A11449E69737}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6959449-56C0-4E11-83C6-B69CC57609A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{963242B6-DC52-429E-A01D-9B1112CD1608}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06032B62-F39B-4661-B5A5-97AEC3FC5543}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F496181-E06F-4647-95CE-053BBF0DDA0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4F1D99D-0969-4050-BDBE-B7A938FE4816}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B27DF5E1-562A-44AE-ACA3-BD17A807DB7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5180,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55354842-E176-47FC-B45D-D0858BDE34AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4920BE22-A703-4AB2-9D7B-A5ADF3FDB74B}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6436,18 +6436,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2FCD2B4-5876-4593-B2EE-C7B92874E62E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEA9BDE5-6EAF-4D61-841A-E9EA03339166}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F7D03D5-00DF-4E7D-B443-EB911DC98F1B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0077A697-6647-493D-8E06-A66A95749BDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5090C4CA-2AEC-4A9D-8864-E0E7E895B89F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80FB535B-B855-4C1F-B6C6-C4F567A84E3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFD03A79-E9CD-4718-830B-1DDD40F2D646}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18F7C744-9B7A-4B51-AEDE-B5A9634A8C1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FF76E4F-A3AD-41CC-9E76-8E57F3FA9F90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{043EF611-604B-49C6-B95B-121DA457FB59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86B3EA8F-14A5-43B3-950D-F30785780FA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0988CE0D-F5FD-47F3-A5F1-EA949D779513}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{580CC1D2-ED81-412E-AFE8-2672E39ED7B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7E2DB0F-9D8E-4DDD-9543-A719859993D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E016AF4B-3BAE-49EB-B0EA-453FA8382E7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB8EC19E-E363-469A-88C9-45E270E5832B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6DF19FC-180C-4992-8D73-9FAA818E355B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{564146F9-304F-41E6-950A-FB64C6A43AA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCE7A32C-C4AE-4A17-9932-A67F9F69EB63}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92E68096-D751-4B1B-911F-B55E5FEF6ED8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F54371B0-3804-421E-8518-A3598940DD56}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{190A0FBC-9870-4017-9370-88153FF75F42}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2859C249-0145-4327-94A6-089F7D423235}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96FAA66A-D3C1-43C9-934A-4ADAACEDBE10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6460,7 +6460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39EE725-16F5-4762-89EB-3D280FC2035D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6075D5D-C026-4D94-9E17-0770A4C1F5FD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7739,18 +7739,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06817054-99B3-4A56-B4FF-5F3BE403BB28}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A279F0D0-5B4E-4E48-8D40-6B3F31603BFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E7227012-526D-4366-B7B4-5C0C88AF7B16}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{267024D0-DE0D-4929-936C-EA616FCF3F0A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5131A84-1B13-4D08-A76C-F03CD9A3662F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F77349A1-D95E-431E-852C-F9A3BB449BE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{978AE6C3-3940-404D-9751-0A44F518439C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5B4A1C9-BDFC-4C73-A6A7-02E8538CD4C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8375B253-45AB-4ABF-813D-ADBF8C08C2D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{195A9CE8-C8FA-45A4-A213-D2105988A328}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{780C7B86-57AC-4534-833E-CA94ADD87B1D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F7272D4-8C72-4041-9BF5-82AE00762E3F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34911E6D-873A-475F-AC35-5870278693D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61346AF3-13F1-43E8-8B60-74FC69CB7615}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D3CE035-22F9-4D8C-9DC2-788FE22C8672}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41A47681-E9B8-4B05-B730-C8D7A1642A64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9C00117-FF68-4001-8347-9B07BA0A7388}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26D1B92D-2CD0-45B3-8374-763B5DD619A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A8F030F-29EE-4B15-BE73-969A916D5AFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAF45D70-66E8-4FAB-8FCF-3C4D0571EB7F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F330FE96-8F78-4F21-A1AC-245CD990F62B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA51DF37-9119-418A-9A1C-D708217012E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05656169-B4C9-40A0-9512-DA9C46133D0C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6E6EDE0-1D04-4497-80E7-3E9D95F87DAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7763,7 +7763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92749A62-2087-431A-82AC-1D585F6A9C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F854C8DF-11A9-44BB-B633-A42C4AFF839B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9038,18 +9038,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53AA2384-3FC1-4F22-928A-C7EA1670C547}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48911C3A-3980-4869-AF90-DE9B130AE185}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{639DF4F1-B127-4E34-BB43-7EB2F4749207}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AF0864A3-DF52-492F-B652-9A93D5AB8ABF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E940F02C-F558-4CF6-8B52-EC528866772E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7558E13C-7B4F-40C9-BB90-74CCA7C8CF66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37AB1163-09A8-46EF-AC06-48D5546B8E63}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BA46B24-EAD7-444E-857D-435AAB70BCAA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27625CB1-10D4-451B-A90D-A905DC83B5E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2088A5B7-895B-40FA-8CB2-6E6970795E6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31B33969-53F0-4F57-9759-4FF3AE82B142}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFC9DD6D-EDEF-45BC-B8E8-2D967240A248}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DCA54B3-BE49-4348-8E7C-4894393057A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AB78311-6579-4917-9CA1-0C905DD15F11}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A07FDD60-C038-47DC-B7B5-19EE50F1DC21}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16996787-47C9-4E11-9BD0-17315B898253}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25C5522B-3D1B-4925-AB5D-57D19B6EE528}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CB9F12E-CBC9-455B-AEE5-A07847D6695F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91A83FC1-58DF-4257-9CD8-995FF0F5A266}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE6F4128-FBD4-43AF-9B17-DB8BF645D2EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDA685FD-420C-456D-93C9-8AFD84DCFEDA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE3A9560-1EE9-4D39-A250-A81AFED1E678}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55447627-3280-4BD9-9973-354231F2CF13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4D84609-7C4B-4F2B-B282-4A3539901396}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9062,7 +9062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED23C23-DD3B-4740-8020-C4440D589367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9D3864-8B81-463E-BC1A-5C79B4890BD1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10333,18 +10333,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE9C8E06-8935-4C18-9C41-C2F84900EF0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB512775-973E-4C8E-B797-6378E0F705B9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70DEF814-13AD-4E29-945D-F54FAF747D85}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B08281FE-CF34-43B6-B1D2-1607818EFA16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A4CA15B-4E7F-46BA-BF62-CB67F25C3D61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA2809E1-A62D-40E7-938C-20A385B38B92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A75D5B2-9C0B-4176-B2C2-D41994903468}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC29AAAD-5D74-42EE-B935-3649B74C3471}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28B14C76-67D2-4A46-86F0-3585D78C5C20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A27E661-D3B1-4B4E-ACA5-7570C6054E8E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08A1D0E4-E394-4036-AFD0-EB136B841858}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FECC24B5-90DD-429C-8448-C140C7471EFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{333E9545-EAF6-4143-9353-17DE52DF9A75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D4F8C07-CACE-4F34-9685-C859613DCE25}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3A33EB2-EBFE-4640-A438-3011B9FE36F2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D2446DC5-2071-448B-905D-0E8CBAA55943}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A04AD406-DA45-4C59-B83C-92200B22B38E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CC6DED8-F4AF-4AE4-9744-598E78CDED9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E084A66-BF66-4B08-B7DC-0064EC9EB053}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0F78797-AB4F-4F74-8C5E-49E04D9D67E3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFBB5813-A198-49A5-A6C9-12B363B88A8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B5D7DDF-4AC7-4485-B230-2B36759AC1C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13CDB2F5-31E9-451D-A82F-DFBC08D8C968}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{605892A0-6E53-4212-A4C1-B03A1EF40AF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10357,7 +10357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1CFD84-3815-4728-8C3D-A9A1F53AE01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F449C79D-A2F5-4554-9417-68DD824395E7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11628,18 +11628,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F832621-2BB8-4AA9-90EE-627A2237153A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BC4F2CE-47A4-4D64-A983-D543800ED3DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA2E9DC7-54DE-4A3F-BA71-5C1A48E614D1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE651313-A434-4425-A401-0B06BC75AE8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CFC32F88-8384-4A9B-81BD-EAD20BA55E9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43359FCC-2198-4E53-9B55-677A31FAE89F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACD9170B-5987-44DE-9132-8A241DC8650C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9CFF281-F4DE-4B69-AFD3-C37CD2C5A565}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B80FA9D-2E7A-448C-82CD-0ECAB4E8C094}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0015EF25-55E2-4E54-8226-A15F98CA9C73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BF88A91-59B2-4269-AC20-1F262A00EAE3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B06ED8DD-0360-4BA8-B0DC-E39AA1398B6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F251B3B9-1C8C-4449-A5A4-23AB25FE7C8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37940FA2-25FA-4EF4-ADF6-5953D6FDF581}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B9D7BFCA-E3AD-4E0F-B0A0-A655923E5B4D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E34D6604-656C-4CAD-9DEE-E624C425C50E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{718C720E-A93A-4621-86A5-12F12BD64C9D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83A3AF8F-F76C-49AE-9634-4DA1578E8B5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{677C490B-32AC-4D57-884D-917D00EE4E9F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{435D246B-B79C-4063-BF8C-A31A319301C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55AA4B51-0D47-4665-B895-DE4128984C2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD19977E-C59F-41B0-8AFD-BC3132727C27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{331F2900-5E7A-47F0-89C2-53F0EE68FAAD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EE929F8-CA25-45CE-BCB6-9D85951AC4A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11652,7 +11652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E258D9C3-AD0B-4D6D-B6C6-6BD061C73B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E02EA15-EDCB-4B16-8864-6B72B7A58DAB}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12911,18 +12911,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AB48D71-7A9C-414C-B7C1-452A9F8A9D2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBECBA99-442D-4536-9A0F-211EC56ED85D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22D3ABFF-EF7F-404C-B527-AEDB2C6C969D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72454711-23C7-4CE8-AF90-BDF83EAD8ED5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04E0B70E-A974-43EE-9C13-764FF3C041DA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78DD7A20-CBC4-4F3F-93E6-E1626B4DD651}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2895A809-2246-441B-9166-72FEB7D36FEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED48A6CB-0F2C-45F4-B3BC-9929F78939A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2909634A-1370-4F19-BF96-570EA4F82F8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81064D21-50DB-4246-A261-2F4A32685880}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBA38A00-B815-4B5C-8D53-8FB15896F050}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07E16CDB-31E3-4600-9D82-A8EF8E07A27F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F145035A-09CB-4B59-BD40-FE7A33D1D553}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04BB1E65-B5C3-4439-BBB0-FFF35DCC9515}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3222ADDB-8230-4BB9-9B5F-B485D74E0396}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B57E21DA-527D-44AA-BA28-C668E4AE351E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A64A045-4252-4553-B265-6852CF513038}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69DE6219-DD45-4694-8DFF-2D78526CC212}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2832299A-159C-40D9-A6AA-0356EE29C387}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7D19074-4A70-4CBE-A380-BB07BB3E04D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DDA4D493-AD20-488A-AD0C-6B5A25F47308}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A560CACE-D247-4234-809C-B25945317C99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10F272C3-7867-4CA9-9941-C55EBFC76BCD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7041F3B7-3229-49D5-97D0-5644974FADAB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12935,7 +12935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2312F535-15E7-449F-B50A-6B428DF59E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDD00A6-7586-4E25-8319-9F77FE7A3C97}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14195,18 +14195,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83750685-DAD4-4544-9350-7DE9B4396D6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7B9CE50-DA4F-4341-BC06-754658AA016E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC07C733-EE4F-49CC-8649-0231201CC9C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E755AA09-0C4C-4849-A101-191F7B0BCD31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3365652C-4889-4A4D-9786-0D1574C07AAC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08291F1E-F5C6-4D18-94AF-A527631BA007}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8A91E65-8F18-47B3-BB61-6F51D7057916}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3083CE0F-97CD-41EA-AACF-571BC74DEBC2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F546D8F2-71B7-4EDA-B497-6ED63B903142}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{771CA71E-958C-470A-A9B1-170A4491834A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15EAD0C2-939F-47A9-8429-7954DBA08576}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3F8B674-95C6-4BDD-B4E1-15FA8F2F26AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5BDF2B0-2E7C-47F2-B2FF-A0798783503C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABD1C8EA-E2A8-43F4-81B3-CBA2BC263C86}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05DB640F-E53A-4EE2-BF57-D7978318CE62}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DB1AC75-E699-463F-9B5A-6325612F43EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{888A67D7-193C-41D7-9F8D-38678C9FC083}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BADF9361-3EB7-48DD-A499-9BDAF2277922}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42C82C9A-81FB-41E8-BE5A-E7EEF4057D5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BDD3025-0967-42FC-9633-770638EC4935}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29B92D76-CCAE-4578-B71D-16D02B07D26D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8312C2F1-4A82-484C-9A71-82DF2BB2ED9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9B219B2-FA19-48AF-9001-7B62A9EEC552}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{490C5F9A-8733-4EAB-9BB3-3A5119E877F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14219,7 +14219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69217A5-ACC5-4114-85F8-154786FF8AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B316BC6-50F6-4E5C-8BC4-8C9C6F51E6EC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15479,18 +15479,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E603163E-337A-4DCB-844D-3B58C6371295}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51979E11-4919-430F-8119-4645B3BBC855}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68818216-47D7-4A10-A170-1EC9FCA2568F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE04061F-CE65-4A76-B698-61F0DDD4CFFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2A97009-8713-45E4-AF66-A6E09A532549}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42139F1C-8902-4D35-A2D7-0CC8BA86773D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C6147C8-214B-4E1E-93D4-49EA727538E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{296340C2-C467-4C21-ABBD-F7FF6DC69CCD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93739491-2124-4851-8B82-B500FC97F848}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B643A91-6232-4FD7-B5EF-1738FD7B9890}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E0F907C-3725-4506-BDAD-953F0FE35486}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{679E609D-0BCA-4801-B68C-FDA5DD2AC770}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E73B8E5D-AAEB-4EA3-8C63-8BC45BE598CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{302AF0ED-EABA-4F78-8F80-3D7E3CDA1E7F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{312178F0-59DD-4305-918F-F850FAD36D9F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5E97E9C-E4DC-4D01-A44A-9F088FC4C066}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB5A41D4-E5F3-4E96-88EB-FBAEEAA7C225}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8067C3B-A38B-42E7-9E67-A5369E970A47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EDB39F7-40D7-4D2D-984F-85743A243E97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CDBCF85-E622-407B-B546-C9345BBAF16E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58BA7263-1D85-4AA3-8BA8-9906869940BF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0854DF10-E4FD-49F1-9D62-0204017B14D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA9165AB-E805-40D3-A7A2-5E7BD9A3FF83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC3D891D-0301-4068-BF42-061A95B60141}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15503,7 +15503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF1C1B8-E363-42F9-B3B9-F0014D79FAE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C1680-57F4-495A-8508-61ABD3D906E1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16763,18 +16763,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{610D8E19-8CAD-4149-A43C-0EC32662C30D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A846258-FF17-4728-872E-6C0081C80FE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8C15334-B642-49F7-89DC-7BE93B1D65E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{938E435B-54CD-40B4-8C97-E226C0979FA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{291EB178-64CC-4E03-8DFB-FB93A0528ECE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10F15EE2-2348-4E88-8A4B-665F99FB1DCE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBA61F45-1E4F-4D2A-9CFC-09599CEA2B6B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9877968-D961-4495-B80F-93A8E23DCF6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DD44CE4-7FC8-480D-AF6E-20F9E8CB3E3B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A42F7FA-C868-4B5F-9968-4B2A8E66BBF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E485B81-D364-404B-8AA5-650DE289FD90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F98185B-A33B-4116-84DB-7FD88DC6FE9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E1529D3-0516-4915-B59D-B685BCC93DD1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEEAB2D1-C1B9-4E8A-9D42-330F26F840BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE5ABBE1-D753-41CC-93F9-5C7D9E8C0E56}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8270C9A-E566-4FEE-9B25-4666301DE476}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{358CDFBD-2125-413D-9E63-D465FED98D19}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A6F6385-65D5-49F9-8332-76E3D277E4F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D791BB51-0F03-4B3B-889A-E31EECF140BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05AB59AA-DC76-40DE-80DA-415C7DFE4981}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B5BAACF-8A4E-4305-A54E-8DC63CF9BA34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F306EEA-6CD6-482C-B178-D30E2DD45E8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8652F09C-0706-474D-A781-63DBADBC5A07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1601508E-A5E3-4A0B-8E02-CB0FA1836037}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
